--- a/biology/Médecine/Alessandro_Pascoli/Alessandro_Pascoli.xlsx
+++ b/biology/Médecine/Alessandro_Pascoli/Alessandro_Pascoli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alessandro Pascoli (né le 10 janvier 1669 à Pérouse, Ombrie et mort le 5 février 1757 à dans cette même ville) était un écrivain, philosophe, médecin italien de la fin du XVIIe  et du début du  XVIIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alessandro Pascoli est le frère cadet de Leone Pascoli.
 C'était un médecin anatomiste qui fut professeur à Rome et Pérouse. Il continue les dissections publiques comme son confrère et concurrent Vesale. Il entretient une large correspondance avec les intellectuelles de l'Europe entière.
@@ -545,7 +559,9 @@
           <t>Œuvres médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il corpo umano o breve storia dove con nuovo metodo si discrivono tutti gli organi suoi, édité à Pérouse en 1700 et à Venise en 1712 et 1727.
 De corpore humano vitam habente, édité à Rome 1728 et 1738 et à Venise en 1735.
@@ -579,7 +595,9 @@
           <t>Œuvres littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sofilo Molossio pastore arcade perugino, e custode degli armenti automatici in Arcadia. Gli difende dallo Scrutinio, che ne fa nella sua critica il signor Pietro Angelo Papi medico, e filosofo sabinese, librairie de Gio. Andreoli Pasquino, éditeur Zenobj, Rome, 1706.
 (it) Alessandro Pascoli, Nuovo metodo per introdursi ad imitazion de' geometri con ordine, chiarezza, e brevità nelle piu sottili questioni di filosofia metafisiche, logiche, morali e fisiche, Poletti, Andrea, 1702 (lire en ligne).
